--- a/data/trans_dic/P20B-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P20B-Habitat-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.3897100316195694</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.3160728517135045</v>
+        <v>0.3160728517135044</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1642166808208674</v>
+        <v>0.1155199294136532</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1984671138080576</v>
+        <v>0.2026115690327421</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3395096236337921</v>
+        <v>0.3402292086903889</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2205065719046551</v>
+        <v>0.221541012114038</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1354035899175243</v>
+        <v>0.1340036412197336</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1646431850131937</v>
+        <v>0.1604676642505156</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1624350166990901</v>
+        <v>0.1609697333734861</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1707270017168305</v>
+        <v>0.176178905985058</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1610158918833331</v>
+        <v>0.1703026592166598</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1970617105661505</v>
+        <v>0.2013079414000206</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2870974089981965</v>
+        <v>0.283929624229126</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2337563436375424</v>
+        <v>0.2318277981033826</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5613108093223499</v>
+        <v>0.5628084213051436</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4653969051286369</v>
+        <v>0.4773271448980641</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6654144504955886</v>
+        <v>0.6662512507523033</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4877102037325676</v>
+        <v>0.5022857628165196</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3804495089614954</v>
+        <v>0.3814101969235317</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3776114606030967</v>
+        <v>0.3664116543162237</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.455646710234212</v>
+        <v>0.4292081433386506</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.415000402620441</v>
+        <v>0.4125608206604882</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3711311026160977</v>
+        <v>0.3797814061434572</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3650460239808335</v>
+        <v>0.3708846864230028</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5015833620874789</v>
+        <v>0.4917544481208841</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4078722944842844</v>
+        <v>0.4230823269063949</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.2685446351441769</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2865714871752291</v>
+        <v>0.286571487175229</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1349952064158405</v>
@@ -821,7 +821,7 @@
         <v>0.2018501006101235</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2216703063018439</v>
+        <v>0.221670306301844</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1594571374683019</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1005977090401761</v>
+        <v>0.1034413571986999</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1555213044834807</v>
+        <v>0.1420373483561283</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1492708603444879</v>
+        <v>0.1563403533107115</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1682132402044899</v>
+        <v>0.1635529881256702</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07576116385692734</v>
+        <v>0.06795837768607396</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1816664832455682</v>
+        <v>0.1902083912433237</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1176617601485929</v>
+        <v>0.1164032959431545</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1380779166254756</v>
+        <v>0.1283477724304696</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1007506086986493</v>
+        <v>0.09809548621613939</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1953407657224938</v>
+        <v>0.2083486955272429</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1541519069016723</v>
+        <v>0.1570865931650991</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.176201877798598</v>
+        <v>0.1719715528496228</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3570367433133384</v>
+        <v>0.3622482011871786</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3900132523599871</v>
+        <v>0.3823404901722106</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4105232495317072</v>
+        <v>0.4265891873300385</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4346172518209444</v>
+        <v>0.4303043644271251</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2330959406224685</v>
+        <v>0.2327056397334304</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3666053817564132</v>
+        <v>0.3787855220637136</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3094691041050754</v>
+        <v>0.3071886397111189</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.361210622388447</v>
+        <v>0.3835426663141701</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.234272372142322</v>
+        <v>0.2415856635668141</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3420572982715371</v>
+        <v>0.3582258267244573</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3145184977568685</v>
+        <v>0.3086079242198492</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3436848254614294</v>
+        <v>0.3427337939218211</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.3425029090791604</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4061667565757914</v>
+        <v>0.4061667565757916</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2905241390016266</v>
@@ -957,7 +957,7 @@
         <v>0.2510386429320665</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1846063921911195</v>
+        <v>0.1846063921911196</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.26443596852516</v>
@@ -969,7 +969,7 @@
         <v>0.2851365447638327</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.280614825520057</v>
+        <v>0.2806148255200568</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1117935345424123</v>
+        <v>0.108429295146461</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1942635256332275</v>
+        <v>0.1965680378129656</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1860654083725415</v>
+        <v>0.1844152028382307</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.242078075904653</v>
+        <v>0.2587843206314475</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.186630185058348</v>
+        <v>0.1929682978103035</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1392851550631697</v>
+        <v>0.1382603406381112</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1436136852663285</v>
+        <v>0.1480111729714335</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1036660144389343</v>
+        <v>0.1104086103052137</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.183057473195388</v>
+        <v>0.1806024832805381</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1928296583599683</v>
+        <v>0.1849549693184663</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1915722268824399</v>
+        <v>0.1831548331609346</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.192514723204074</v>
+        <v>0.2004039951746477</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4058776979681206</v>
+        <v>0.4080178523053501</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5019790376487305</v>
+        <v>0.49688393612515</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5746552994020435</v>
+        <v>0.5422454155850254</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5686917805112831</v>
+        <v>0.5819747549765091</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4096843178349459</v>
+        <v>0.4142548695459482</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3474124301621288</v>
+        <v>0.3518622183734301</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.388033187708104</v>
+        <v>0.3942172681679943</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2866455526919811</v>
+        <v>0.3053021482748736</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3641220091424006</v>
+        <v>0.3620100076866899</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3694125042808794</v>
+        <v>0.3613885369899587</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3952436568843746</v>
+        <v>0.3920862314285435</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3804573039799276</v>
+        <v>0.3958734777334797</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.2462835626216672</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2443376537070453</v>
+        <v>0.2443376537070452</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2294808276728558</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1868907589444336</v>
+        <v>0.1809768657609074</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1844412094225888</v>
+        <v>0.1834792663827321</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1637446657173316</v>
+        <v>0.1539311584076916</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2120242980557651</v>
+        <v>0.2230838938237036</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.09866284476284026</v>
+        <v>0.1012463273577094</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1479119989118662</v>
+        <v>0.1418301366010688</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1642867371894379</v>
+        <v>0.158916638701084</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1735100020238635</v>
+        <v>0.1758376479966651</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1608770907300987</v>
+        <v>0.1562988038207406</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1744082874146993</v>
+        <v>0.1826485407997774</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1809670907937663</v>
+        <v>0.1829707796853527</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2190863706829332</v>
+        <v>0.2188911148551713</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4538628516748223</v>
+        <v>0.4617785235437872</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4129335674728218</v>
+        <v>0.4211198323015928</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4212314109312772</v>
+        <v>0.4019964717847894</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4262921583586142</v>
+        <v>0.4329066347459753</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.279011275421699</v>
+        <v>0.2953030965985186</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3216523513819551</v>
+        <v>0.3159089711427452</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3682108231230062</v>
+        <v>0.3485948102075608</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3289744287879736</v>
+        <v>0.3268965008436274</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3155336712209048</v>
+        <v>0.3128487514224574</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3216609742567319</v>
+        <v>0.3221991130510027</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3382152777921845</v>
+        <v>0.336863995806517</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3467665251156429</v>
+        <v>0.3449569193885924</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1830524697558018</v>
+        <v>0.18977884689868</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2381225695088485</v>
+        <v>0.2332073644216135</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2624940483578942</v>
+        <v>0.264902479549987</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2694853046682004</v>
+        <v>0.264145318387112</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1572661301764162</v>
+        <v>0.1556056068906921</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1998354733789942</v>
+        <v>0.1947541617069954</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1921303480164307</v>
+        <v>0.1932809052918325</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1896955173478476</v>
+        <v>0.1892052638867351</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1815077311453312</v>
+        <v>0.1805203362427505</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2286282771276149</v>
+        <v>0.2288367072288141</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2350172219506103</v>
+        <v>0.2354083753650303</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2339195691244831</v>
+        <v>0.2435774812265698</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3389237593735156</v>
+        <v>0.3392457584281728</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3670184161146139</v>
+        <v>0.3641066265390796</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4081006630758622</v>
+        <v>0.4183779958695406</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4047079870962601</v>
+        <v>0.4009326934426656</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2540611946219508</v>
+        <v>0.2576700904987361</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2930387831503881</v>
+        <v>0.2948484358868057</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3038407881599366</v>
+        <v>0.3016669912027148</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2895034083466314</v>
+        <v>0.2903638613774026</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2627774922395265</v>
+        <v>0.2650107077365864</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.304331994952572</v>
+        <v>0.3068053905934142</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3232685664287526</v>
+        <v>0.3264660617577071</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3172102975135616</v>
+        <v>0.3252938182688117</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2834</v>
+        <v>1994</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9008</v>
+        <v>9196</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>12230</v>
+        <v>12256</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10567</v>
+        <v>10616</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6383</v>
+        <v>6317</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>12264</v>
+        <v>11953</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7495</v>
+        <v>7427</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>8007</v>
+        <v>8263</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>10369</v>
+        <v>10967</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>23623</v>
+        <v>24132</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>23590</v>
+        <v>23330</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>22165</v>
+        <v>21982</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9687</v>
+        <v>9712</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>21123</v>
+        <v>21665</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>23971</v>
+        <v>24001</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>23372</v>
+        <v>24070</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>17935</v>
+        <v>17980</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>28127</v>
+        <v>27293</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>21024</v>
+        <v>19805</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>19463</v>
+        <v>19349</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>23900</v>
+        <v>24458</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>43760</v>
+        <v>44459</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>41214</v>
+        <v>40406</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>38674</v>
+        <v>40116</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3751</v>
+        <v>3857</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9577</v>
+        <v>8746</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6819</v>
+        <v>7141</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>9187</v>
+        <v>8933</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>5706</v>
+        <v>5118</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>17500</v>
+        <v>18323</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>9061</v>
+        <v>8964</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>9626</v>
+        <v>8947</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>11344</v>
+        <v>11045</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>30846</v>
+        <v>32900</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>18912</v>
+        <v>19272</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>21907</v>
+        <v>21381</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>13311</v>
+        <v>13506</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>24016</v>
+        <v>23543</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>18752</v>
+        <v>19486</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>23738</v>
+        <v>23502</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>17555</v>
+        <v>17525</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>35316</v>
+        <v>36489</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>23832</v>
+        <v>23656</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>25180</v>
+        <v>26737</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>26378</v>
+        <v>27201</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>54014</v>
+        <v>56567</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>38587</v>
+        <v>37862</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>42730</v>
+        <v>42612</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4233</v>
+        <v>4106</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9269</v>
+        <v>9379</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6176</v>
+        <v>6121</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>9209</v>
+        <v>9845</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>10757</v>
+        <v>11122</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>10510</v>
+        <v>10433</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8020</v>
+        <v>8266</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5157</v>
+        <v>5493</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>17482</v>
+        <v>17248</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>23751</v>
+        <v>22781</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>17057</v>
+        <v>16308</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>16901</v>
+        <v>17593</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15368</v>
+        <v>15449</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>23951</v>
+        <v>23708</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>19075</v>
+        <v>17999</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>21634</v>
+        <v>22139</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>23613</v>
+        <v>23877</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>26216</v>
+        <v>26552</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>21670</v>
+        <v>22015</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>14260</v>
+        <v>15188</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>34774</v>
+        <v>34573</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>45502</v>
+        <v>44513</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>35192</v>
+        <v>34911</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>33400</v>
+        <v>34754</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7771</v>
+        <v>7525</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9791</v>
+        <v>9740</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>7791</v>
+        <v>7324</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>13696</v>
+        <v>14411</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6736</v>
+        <v>6913</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>13054</v>
+        <v>12518</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>14874</v>
+        <v>14388</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>13726</v>
+        <v>13911</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>17673</v>
+        <v>17170</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>24652</v>
+        <v>25816</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>24995</v>
+        <v>25271</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>31484</v>
+        <v>31456</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>18871</v>
+        <v>19200</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>21921</v>
+        <v>22356</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>20043</v>
+        <v>19127</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>27538</v>
+        <v>27965</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>19050</v>
+        <v>20162</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>28388</v>
+        <v>27881</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>33336</v>
+        <v>31560</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>26025</v>
+        <v>25861</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>34663</v>
+        <v>34368</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>45465</v>
+        <v>45541</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>46713</v>
+        <v>46527</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>49833</v>
+        <v>49573</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>24526</v>
+        <v>25427</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>49474</v>
+        <v>48452</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>42649</v>
+        <v>43041</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>55292</v>
+        <v>54197</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>39060</v>
+        <v>38647</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>66852</v>
+        <v>65152</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>51785</v>
+        <v>52095</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>46564</v>
+        <v>46444</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>69399</v>
+        <v>69022</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>123985</v>
+        <v>124098</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>101529</v>
+        <v>101698</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>105415</v>
+        <v>109767</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>45410</v>
+        <v>45453</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>76254</v>
+        <v>75649</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>66307</v>
+        <v>67977</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>83037</v>
+        <v>82263</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>63100</v>
+        <v>63997</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>98032</v>
+        <v>98637</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>81895</v>
+        <v>81309</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>71064</v>
+        <v>71275</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>100473</v>
+        <v>101327</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>165040</v>
+        <v>166381</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>139655</v>
+        <v>141036</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>142949</v>
+        <v>146592</v>
       </c>
     </row>
     <row r="24">
